--- a/src/test/resources/TestData/AmazonTestData.xlsx
+++ b/src/test/resources/TestData/AmazonTestData.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hafiz\IDEA Project\Amazon\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdaziz/IdeaProjects/Amazon/src/test/resources/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{673258CF-593E-444C-BA46-CA234500C8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2746C0DE-78D8-8748-8E57-B34D0666D79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{432C8C31-A114-49C0-A38C-A2D746B4FAEE}"/>
+    <workbookView xWindow="2880" yWindow="1440" windowWidth="10000" windowHeight="10420" xr2:uid="{432C8C31-A114-49C0-A38C-A2D746B4FAEE}"/>
   </bookViews>
   <sheets>
-    <sheet name="AmazonTestData" sheetId="1" r:id="rId1"/>
+    <sheet name="Osman_Aziz" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,6 +31,89 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Expected Value</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Alice In Wonderland</t>
+  </si>
+  <si>
+    <t>Play Music</t>
+  </si>
+  <si>
+    <t>Fire TV</t>
+  </si>
+  <si>
+    <t>Vitamins</t>
+  </si>
+  <si>
+    <t>Deals of the Day</t>
+  </si>
+  <si>
+    <t>Toaster</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>Painting Supply</t>
+  </si>
+  <si>
+    <t>Windshield Wiper</t>
+  </si>
+  <si>
+    <t>Diaper</t>
+  </si>
+  <si>
+    <t>Eyliner</t>
+  </si>
+  <si>
+    <t>Amazon.com : Books</t>
+  </si>
+  <si>
+    <t>Amazon.com : Alice In Wonderland</t>
+  </si>
+  <si>
+    <t>Amazon.com : Play Music</t>
+  </si>
+  <si>
+    <t>Amazon.com : Fire Tv</t>
+  </si>
+  <si>
+    <t>Amazon.com : Vitamin</t>
+  </si>
+  <si>
+    <t>Amazon.com : Deals of the Day</t>
+  </si>
+  <si>
+    <t>Amazon.com : Toaster</t>
+  </si>
+  <si>
+    <t>Amazon.com : Mario</t>
+  </si>
+  <si>
+    <t>Amazon.com : Painting Supply</t>
+  </si>
+  <si>
+    <t>Amazon.com : Winshield Wiper</t>
+  </si>
+  <si>
+    <t>Amazon.com : Diaper</t>
+  </si>
+  <si>
+    <t>Amazon.com : Eyeliner</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,14 +463,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0B423D-1D02-4C4A-ADFB-75148AF5747C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/AmazonTestData.xlsx
+++ b/src/test/resources/TestData/AmazonTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hafiz\IDEA Project\Amazon\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDD4571-D453-4FE2-83D5-60A05AFE28CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E16CF3-01FA-4C3D-80B5-E67581FB451F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{432C8C31-A114-49C0-A38C-A2D746B4FAEE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{432C8C31-A114-49C0-A38C-A2D746B4FAEE}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSell" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Expected Result</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Re-Enter Password</t>
+  </si>
+  <si>
+    <t>You indicated you're a new customer, but an account already exists with the email address</t>
   </si>
 </sst>
 </file>
@@ -457,15 +460,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0B423D-1D02-4C4A-ADFB-75148AF5747C}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="73.54296875" customWidth="1"/>
+    <col min="1" max="1" width="100.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -491,6 +494,11 @@
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -552,7 +560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4C4906-B543-477D-8256-FCEA3EEA2460}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
